--- a/prep_and_checklists/Stetson  /PREPLIST_Stetson  _12-12-2025_0.xlsx
+++ b/prep_and_checklists/Stetson  /PREPLIST_Stetson  _12-12-2025_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Stetson  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48AF97E-760D-8347-A075-7532D7F38DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16289B0E-2155-D244-B9E8-08A116376831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,20 @@
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
     <sheet name="order_sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1023,6 +1036,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1575,8 +1591,8 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -2178,5 +2194,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>